--- a/实验数据.xlsx
+++ b/实验数据.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leimiaomiao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leimiaomiao/Documents/Projects/Postgraduate/Multi-Objective-Workflow-Scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="-5140" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="实验数据" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>MOWS</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>延时系数=0</t>
+  </si>
+  <si>
+    <t>RANDOM</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>MOWS</c:v>
+            <c:v>RANDOM</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -300,46 +303,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>143.0</c:v>
+                  <c:v>138.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144.0</c:v>
+                  <c:v>145.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145.0</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.0</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>148.0</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150.0</c:v>
+                  <c:v>151.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.0</c:v>
+                  <c:v>151.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>154.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>155.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>156.0</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>159.0</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>160.0</c:v>
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -351,46 +363,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>144.0</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134.0</c:v>
+                  <c:v>113.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>129.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.0</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0</c:v>
+                  <c:v>116.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0</c:v>
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,55 +455,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>140.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.0</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159.0</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>159.0</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159.0</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>159.0</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>160.0</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>161.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>161.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>161.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>164.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>165.0</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>167.0</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>167.0</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>167.0</c:v>
+                  <c:v>163.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,55 +515,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>273.0</c:v>
+                  <c:v>259.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>137.0</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>133.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>137.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>141.0</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>133.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>141.0</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>134.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>134.0</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>138.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>141.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>137.0</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>134.0</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,52 +607,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>140.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>141.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>144.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>145.0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>146.0</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>148.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>151.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>154.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>155.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>156.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,51 +637,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>186.0</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.0</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163.0</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>159.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>127.0</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -703,15 +670,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2107959824"/>
-        <c:axId val="-2108154592"/>
+        <c:axId val="2140594992"/>
+        <c:axId val="2140743504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2107959824"/>
+        <c:axId val="2140594992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="168.0"/>
-          <c:min val="140.0"/>
+          <c:max val="165.0"/>
+          <c:min val="135.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -766,15 +733,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108154592"/>
+        <c:crossAx val="2140743504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2108154592"/>
+        <c:axId val="2140743504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -829,9 +797,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107959824"/>
+        <c:crossAx val="2140594992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1014,7 +983,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>MOWS</c:v>
+            <c:v>RANDOM</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1468,11 +1437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2107722560"/>
-        <c:axId val="-2107719264"/>
+        <c:axId val="-2108049728"/>
+        <c:axId val="-2108301904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2107722560"/>
+        <c:axId val="-2108049728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="270.0"/>
@@ -1531,13 +1500,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107719264"/>
+        <c:crossAx val="-2108301904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2107719264"/>
+        <c:axId val="-2108301904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,7 +1563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107722560"/>
+        <c:crossAx val="-2108049728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2250,11 +2219,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2134594624"/>
-        <c:axId val="-2134591328"/>
+        <c:axId val="-2038987968"/>
+        <c:axId val="2127025008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2134594624"/>
+        <c:axId val="-2038987968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400.0"/>
@@ -2312,12 +2281,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134591328"/>
+        <c:crossAx val="2127025008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2134591328"/>
+        <c:axId val="2127025008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,7 +2343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134594624"/>
+        <c:crossAx val="-2038987968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2989,11 +2958,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106441728"/>
-        <c:axId val="-2106438432"/>
+        <c:axId val="2139796480"/>
+        <c:axId val="2139199056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106441728"/>
+        <c:axId val="2139796480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="510.0"/>
@@ -3051,12 +3020,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106438432"/>
+        <c:crossAx val="2139199056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106438432"/>
+        <c:axId val="2139199056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3113,7 +3082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106441728"/>
+        <c:crossAx val="2139796480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3248,7 +3217,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3752,11 +3720,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106393120"/>
-        <c:axId val="-2106389824"/>
+        <c:axId val="-2046175504"/>
+        <c:axId val="-2132765488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106393120"/>
+        <c:axId val="-2046175504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="140.0"/>
@@ -3814,12 +3782,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106389824"/>
+        <c:crossAx val="-2132765488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106389824"/>
+        <c:axId val="-2132765488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3876,7 +3844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106393120"/>
+        <c:crossAx val="-2046175504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4011,7 +3979,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4419,11 +4386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106348320"/>
-        <c:axId val="-2106345024"/>
+        <c:axId val="-2138325264"/>
+        <c:axId val="2140804608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106348320"/>
+        <c:axId val="-2138325264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150.0"/>
@@ -4481,13 +4448,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106345024"/>
+        <c:crossAx val="2140804608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106345024"/>
+        <c:axId val="2140804608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4544,7 +4511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106348320"/>
+        <c:crossAx val="-2138325264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4679,7 +4646,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5183,11 +5149,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106305296"/>
-        <c:axId val="-2106302000"/>
+        <c:axId val="-2137799456"/>
+        <c:axId val="-2132189456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106305296"/>
+        <c:axId val="-2137799456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="140.0"/>
@@ -5245,12 +5211,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106302000"/>
+        <c:crossAx val="-2132189456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106302000"/>
+        <c:axId val="-2132189456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5307,7 +5273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106305296"/>
+        <c:crossAx val="-2137799456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5442,7 +5408,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6210,11 +6175,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106259616"/>
-        <c:axId val="-2106256320"/>
+        <c:axId val="-2134593776"/>
+        <c:axId val="-2046378736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106259616"/>
+        <c:axId val="-2134593776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1200.0"/>
@@ -6272,12 +6237,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106256320"/>
+        <c:crossAx val="-2046378736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106256320"/>
+        <c:axId val="-2046378736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6334,7 +6299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106259616"/>
+        <c:crossAx val="-2134593776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7224,11 +7189,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106205328"/>
-        <c:axId val="-2106201984"/>
+        <c:axId val="2140371136"/>
+        <c:axId val="-2046639728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106205328"/>
+        <c:axId val="2140371136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="220.0"/>
@@ -7287,12 +7252,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106201984"/>
+        <c:crossAx val="-2046639728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106201984"/>
+        <c:axId val="-2046639728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7349,7 +7314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106205328"/>
+        <c:crossAx val="2140371136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12956,90 +12921,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="L227" sqref="L227"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B1">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C1">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D1">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="E1">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F1">
-        <v>186</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B2">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D2">
-        <v>273</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F2">
-        <v>173</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D3">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E3">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F3">
-        <v>163</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C4">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D4">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F4">
-        <v>159</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -13047,139 +13012,115 @@
         <v>147</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C5">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D5">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E5">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F5">
-        <v>127</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="C6">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D6">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E6">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F6">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C7">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="E7">
         <v>147</v>
       </c>
       <c r="F7">
-        <v>101</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="C8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D8">
-        <v>133</v>
-      </c>
-      <c r="E8">
-        <v>148</v>
-      </c>
-      <c r="F8">
-        <v>55</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="C9">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D9">
-        <v>137</v>
-      </c>
-      <c r="E9">
-        <v>150</v>
-      </c>
-      <c r="F9">
-        <v>40</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="C10">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D10">
-        <v>141</v>
-      </c>
-      <c r="E10">
-        <v>151</v>
-      </c>
-      <c r="F10">
-        <v>35</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="C11">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D11">
-        <v>134</v>
-      </c>
-      <c r="E11">
-        <v>154</v>
-      </c>
-      <c r="F11">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -13187,119 +13128,125 @@
         <v>157</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C12">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D12">
-        <v>134</v>
-      </c>
-      <c r="E12">
-        <v>155</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="C13">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D13">
-        <v>138</v>
-      </c>
-      <c r="E13">
-        <v>156</v>
-      </c>
-      <c r="F13">
-        <v>17</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C14">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D14">
-        <v>140</v>
-      </c>
-      <c r="E14">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>157</v>
       </c>
-      <c r="F14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>126</v>
+      </c>
       <c r="C15">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D15">
-        <v>141</v>
-      </c>
-      <c r="E15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>157</v>
+      </c>
+      <c r="B16">
+        <v>128</v>
+      </c>
+      <c r="C16">
+        <v>161</v>
+      </c>
+      <c r="D16">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>161</v>
+      </c>
+      <c r="B17">
+        <v>116</v>
+      </c>
+      <c r="C17">
+        <v>163</v>
+      </c>
+      <c r="D17">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>161</v>
+      </c>
+      <c r="B18">
         <v>159</v>
       </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16">
-        <v>167</v>
-      </c>
-      <c r="D16">
-        <v>137</v>
-      </c>
-      <c r="E16">
-        <v>160</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <v>167</v>
-      </c>
-      <c r="D17">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D18">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>161</v>
+      </c>
+      <c r="B19">
+        <v>113</v>
+      </c>
       <c r="C19">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D19">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>163</v>
+      </c>
+      <c r="B20">
+        <v>126</v>
+      </c>
       <c r="C20">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -13309,7 +13256,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
